--- a/公司黑名单.xlsx
+++ b/公司黑名单.xlsx
@@ -4,20 +4,37 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="北京" sheetId="1" r:id="rId1"/>
+    <sheet name="上海" sheetId="2" r:id="rId2"/>
+    <sheet name="广州" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+  <si>
+    <t>公司全称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司存在的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +47,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -56,9 +82,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,12 +383,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="29.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="23">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -368,12 +416,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="41.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="23">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -382,12 +449,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="3" max="3" width="40.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="23">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
